--- a/workOnExcel/Screwed.xlsx
+++ b/workOnExcel/Screwed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,6 +464,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -509,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -517,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -525,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -533,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/workOnExcel/Screwed.xlsx
+++ b/workOnExcel/Screwed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -23,25 +23,25 @@
     <t>worker</t>
   </si>
   <si>
+    <t>adir</t>
+  </si>
+  <si>
+    <t>yoni</t>
+  </si>
+  <si>
+    <t>rotem</t>
+  </si>
+  <si>
+    <t>tair</t>
+  </si>
+  <si>
     <t>stav</t>
   </si>
   <si>
-    <t>rotem</t>
-  </si>
-  <si>
-    <t>adir</t>
-  </si>
-  <si>
-    <t>tair</t>
+    <t>asaf</t>
   </si>
   <si>
     <t>number of shifts</t>
-  </si>
-  <si>
-    <t>yoni</t>
-  </si>
-  <si>
-    <t>asaf</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -448,31 +448,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -493,23 +469,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -517,31 +493,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/workOnExcel/Screwed.xlsx
+++ b/workOnExcel/Screwed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,6 +449,22 @@
       </c>
       <c r="B9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -517,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/workOnExcel/Screwed.xlsx
+++ b/workOnExcel/Screwed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,6 +465,38 @@
       </c>
       <c r="B11" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -501,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -509,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -517,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -533,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
